--- a/output_table/final_out_rec_count.xlsx
+++ b/output_table/final_out_rec_count.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>IGluT(5)</t>
   </si>
@@ -35,64 +35,40 @@
     <t>τdecay IGluT(5)/τdecay IGluT(1)</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Контроль</t>
-  </si>
-  <si>
-    <t>ЭС</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>P-Val</t>
-  </si>
-  <si>
-    <t>U-stat</t>
-  </si>
-  <si>
-    <t>τd IGluT(5)/τd IGluT(1)</t>
-  </si>
-  <si>
-    <t>Mann-Whitney-Wilcoxon test two-sided</t>
-  </si>
-  <si>
-    <t>5.830e-01</t>
-  </si>
-  <si>
-    <t>1.000e+00</t>
-  </si>
-  <si>
-    <t>3.030e-02</t>
-  </si>
-  <si>
-    <t>2.468e-01</t>
-  </si>
-  <si>
-    <t>4.413e-02</t>
-  </si>
-  <si>
-    <t>8.225e-02</t>
-  </si>
-  <si>
-    <t>1.150e+01</t>
-  </si>
-  <si>
-    <t>1.550e+01</t>
-  </si>
-  <si>
-    <t>3.000e+00</t>
-  </si>
-  <si>
-    <t>8.000e+00</t>
-  </si>
-  <si>
-    <t>2.650e+01</t>
-  </si>
-  <si>
-    <t>5.000e+00</t>
+    <t>p_val</t>
+  </si>
+  <si>
+    <t>u_stat</t>
+  </si>
+  <si>
+    <t>7.748e-01</t>
+  </si>
+  <si>
+    <t>8.862e-01</t>
+  </si>
+  <si>
+    <t>8.604e-02</t>
+  </si>
+  <si>
+    <t>4.452e-01</t>
+  </si>
+  <si>
+    <t>5.338e-01</t>
+  </si>
+  <si>
+    <t>1.850e+01</t>
+  </si>
+  <si>
+    <t>2.250e+01</t>
+  </si>
+  <si>
+    <t>3.350e+01</t>
+  </si>
+  <si>
+    <t>1.500e+01</t>
+  </si>
+  <si>
+    <t>1.600e+01</t>
   </si>
 </sst>
 </file>
@@ -450,13 +426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,164 +451,74 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0.25</v>
       </c>
       <c r="B2">
-        <v>-67.22</v>
+        <v>-77.31</v>
       </c>
       <c r="C2">
-        <v>-50.12</v>
+        <v>-56.21</v>
       </c>
       <c r="D2">
-        <v>9.23</v>
+        <v>8.81</v>
       </c>
       <c r="E2">
-        <v>9.5</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F2">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="G2">
-        <v>0.96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>-35.61</v>
+        <v>-34.24</v>
       </c>
       <c r="C3">
-        <v>-25.74</v>
+        <v>-31.83</v>
       </c>
       <c r="D3">
-        <v>10.84</v>
+        <v>11.99</v>
       </c>
       <c r="E3">
-        <v>9.58</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F3">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="G3">
-        <v>1.07</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>0.75</v>
       </c>
       <c r="B4">
-        <v>-31.54</v>
+        <v>-28.02</v>
       </c>
       <c r="C4">
-        <v>-19.03</v>
+        <v>-18.83</v>
       </c>
       <c r="D4">
-        <v>12.06</v>
+        <v>14.29</v>
       </c>
       <c r="E4">
-        <v>10.96</v>
+        <v>11.42</v>
       </c>
       <c r="F4">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="G4">
-        <v>1.21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="B5">
-        <v>-36.97</v>
-      </c>
-      <c r="C5">
-        <v>-39.12</v>
-      </c>
-      <c r="D5">
-        <v>13.77</v>
-      </c>
-      <c r="E5">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="F5">
-        <v>1.14</v>
-      </c>
-      <c r="G5">
-        <v>1.25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B6">
-        <v>-28.02</v>
-      </c>
-      <c r="C6">
-        <v>-31.83</v>
-      </c>
-      <c r="D6">
-        <v>15.44</v>
-      </c>
-      <c r="E6">
-        <v>10.69</v>
-      </c>
-      <c r="F6">
-        <v>1.16</v>
-      </c>
-      <c r="G6">
         <v>1.26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="B7">
-        <v>-19.23</v>
-      </c>
-      <c r="C7">
-        <v>-16.34</v>
-      </c>
-      <c r="D7">
-        <v>15.98</v>
-      </c>
-      <c r="E7">
-        <v>11.66</v>
-      </c>
-      <c r="F7">
-        <v>1.18</v>
-      </c>
-      <c r="G7">
-        <v>1.5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -642,105 +528,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
